--- a/data/trans_camb/P2A_psíq_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,76; 3,54</t>
+          <t>-1,75; 3,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 1,48</t>
+          <t>-2,76; 1,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 4,35</t>
+          <t>0,06; 4,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,79</t>
+          <t>0,55; 4,95</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,98</t>
+          <t>-0,46; 2,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 2,48</t>
+          <t>-0,53; 2,34</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-80,48; 673,53</t>
+          <t>-77,72; 560,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-94,96; 396,01</t>
+          <t>-91,63; 309,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-38,71; 677,06</t>
+          <t>-36,49; 625,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-46,05; 571,14</t>
+          <t>-44,29; 533,93</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,2</t>
+          <t>-0,59; 2,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,45</t>
+          <t>-1,69; 0,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,7; 4,72</t>
+          <t>0,54; 4,33</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 0,16</t>
+          <t>-3,5; 0,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -0,26</t>
+          <t>-4,04; -0,4</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 2,5</t>
+          <t>-1,9; 2,64</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 0,58</t>
+          <t>-1,61; 0,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,23; -0,37</t>
+          <t>-2,22; -0,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 2,74</t>
+          <t>-0,28; 2,6</t>
         </is>
       </c>
     </row>
@@ -1017,37 +1017,37 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,48; —</t>
+          <t>-36,1; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,03; 27,81</t>
+          <t>-83,78; 16,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-89,36; -0,83</t>
+          <t>-91,08; -4,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-45,5; 129,95</t>
+          <t>-47,72; 144,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,8; 56,13</t>
+          <t>-66,32; 60,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-89,21; -19,59</t>
+          <t>-88,13; -17,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 234,04</t>
+          <t>-14,64; 203,51</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,27; 5,37</t>
+          <t>0,03; 5,39</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 0,0</t>
+          <t>-2,08; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 3,23</t>
+          <t>-0,2; 3,32</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,7</t>
+          <t>-0,18; 3,51</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,81</t>
+          <t>-1,04; 1,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,14; 3,06</t>
+          <t>-0,09; 3,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 3,58</t>
+          <t>0,38; 3,59</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 0,63</t>
+          <t>-1,08; 0,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 2,83</t>
+          <t>0,56; 2,84</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-56,7; —</t>
+          <t>-68,89; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,12 +1233,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-79,5; —</t>
+          <t>-52,39; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-73,52; 13767830,06</t>
+          <t>-75,89; 8669294,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,6; 14422044,41</t>
+          <t>-39,63; 13433714,88</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0,58; 1357,89</t>
+          <t>4,83; 1624,35</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 423,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 1359,05</t>
+          <t>17,47; 1216,58</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 3,16</t>
+          <t>-0,51; 3,0</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,77</t>
+          <t>-0,48; 3,58</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,86; -0,06</t>
+          <t>-2,77; -0,06</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 4,34</t>
+          <t>1,27; 4,34</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 6,54</t>
+          <t>1,85; 6,69</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 2,31</t>
+          <t>-0,03; 2,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,82; 3,17</t>
+          <t>0,88; 3,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,29; 4,44</t>
+          <t>1,3; 4,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,07</t>
+          <t>-0,8; 0,96</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,82; 840,78</t>
+          <t>-46,3; 606,88</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,6; 1013,73</t>
+          <t>-45,41; 765,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>19,41; —</t>
+          <t>56,75; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>91,67; —</t>
+          <t>111,49; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-41,76; —</t>
+          <t>-36,68; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>45,03; 824,88</t>
+          <t>40,15; 837,01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>70,68; 1054,36</t>
+          <t>74,13; 1050,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-58,24; 258,29</t>
+          <t>-56,22; 258,94</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 5,92</t>
+          <t>-0,41; 5,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 1,36</t>
+          <t>-2,31; 1,41</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,04</t>
+          <t>-2,61; 1,05</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,05; 5,05</t>
+          <t>-1,22; 4,84</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 2,81</t>
+          <t>-2,07; 2,82</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,9; -0,04</t>
+          <t>-3,98; 0,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,3</t>
+          <t>0,14; 4,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,54</t>
+          <t>-1,68; 1,56</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,1</t>
+          <t>-2,43; 0,16</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-49,75; 1428,45</t>
+          <t>-61,5; 1415,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-78,42; 953,44</t>
+          <t>-60,13; 780,53</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,17 +1685,17 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 627,6</t>
+          <t>-7,98; 623,18</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-74,4; 301,83</t>
+          <t>-75,2; 287,66</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-95,51; 64,19</t>
+          <t>-93,24; 147,69</t>
         </is>
       </c>
     </row>
@@ -1765,22 +1765,22 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,01; 3,41</t>
+          <t>0,02; 3,47</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,13</t>
+          <t>-0,73; 1,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,68; 6,17</t>
+          <t>1,51; 6,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,12; 5,02</t>
+          <t>1,09; 4,97</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -1790,22 +1790,22 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,31; 5,63</t>
+          <t>2,19; 5,59</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,94; 3,46</t>
+          <t>0,92; 3,59</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 1,82</t>
+          <t>-0,01; 1,64</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,24; 5,06</t>
+          <t>2,44; 5,11</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 2,37</t>
+          <t>-0,21; 2,21</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 0,63</t>
+          <t>-1,11; 0,64</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,32</t>
+          <t>1,49; 5,36</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,82</t>
+          <t>-0,46; 1,78</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 1,15</t>
+          <t>-0,86; 1,19</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,54; 49,77</t>
+          <t>4,56; 48,76</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,57</t>
+          <t>-0,05; 1,65</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 0,61</t>
+          <t>-0,65; 0,68</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,71; 34,68</t>
+          <t>3,76; 33,05</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-35,28; 642,83</t>
+          <t>-37,39; 667,55</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 365,34</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>96,56; 1548,46</t>
+          <t>92,52; 1711,52</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-48,36; 573,37</t>
+          <t>-51,14; 626,63</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-71,66; 431,88</t>
+          <t>-78,04; 420,85</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>448,23; 23581,96</t>
+          <t>440,58; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,73; 379,82</t>
+          <t>-15,86; 344,01</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-66,38; 144,75</t>
+          <t>-65,62; 179,7</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>416,52; 8938,47</t>
+          <t>394,44; 8385,61</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,93</t>
+          <t>-1,2; 1,01</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 0,82</t>
+          <t>-1,36; 0,79</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 2,04</t>
+          <t>-0,36; 2,1</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,05</t>
+          <t>-0,61; 2,08</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,44</t>
+          <t>-0,84; 1,56</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 1,96</t>
+          <t>-0,29; 2,03</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,18</t>
+          <t>-0,64; 1,06</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 0,94</t>
+          <t>-0,77; 0,94</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 1,68</t>
+          <t>-0,06; 1,62</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-79,26; 237,71</t>
+          <t>-78,79; 235,28</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-79,2; 154,01</t>
+          <t>-78,97; 156,16</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-29,2; 378,11</t>
+          <t>-28,45; 393,53</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-38,99; 348,9</t>
+          <t>-37,14; 318,2</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-52,13; 244,3</t>
+          <t>-57,07; 254,89</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-26,99; 343,63</t>
+          <t>-21,75; 333,14</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-43,08; 160,34</t>
+          <t>-45,08; 142,99</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-47,26; 143,01</t>
+          <t>-49,38; 137,04</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 237,41</t>
+          <t>-7,65; 216,17</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,23; 1,55</t>
+          <t>0,32; 1,52</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 0,52</t>
+          <t>-0,48; 0,49</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,69; 2,07</t>
+          <t>0,8; 2,09</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,43; 1,58</t>
+          <t>0,39; 1,58</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,1</t>
+          <t>-0,09; 1,08</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,67; 14,59</t>
+          <t>1,65; 14,1</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,52; 1,36</t>
+          <t>0,59; 1,44</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 0,64</t>
+          <t>-0,15; 0,61</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,48; 9,25</t>
+          <t>1,48; 8,95</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>17,21; 231,44</t>
+          <t>26,49; 220,44</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-36,67; 78,81</t>
+          <t>-41,21; 70,95</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>49,9; 294,13</t>
+          <t>67,5; 308,81</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>31,14; 196,34</t>
+          <t>26,76; 183,91</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 128,71</t>
+          <t>-7,26; 124,06</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>133,02; 1630,57</t>
+          <t>129,18; 1346,45</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>42,42; 163,54</t>
+          <t>48,02; 170,67</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-10,2; 76,05</t>
+          <t>-12,59; 72,08</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>136,43; 942,03</t>
+          <t>137,35; 974,58</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_psíq_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,37 +642,37 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,64</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>2,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,64</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,19</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>0,71</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 6,37</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,37 +695,37 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,34</t>
+          <t>-2,83; 1,26</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 5,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 4,08</t>
+          <t>-0,66; 3,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 4,95</t>
+          <t>0,03; 5,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 4,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 2,88</t>
+          <t>-0,65; 2,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 2,34</t>
+          <t>-0,68; 2,35</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>167,68%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,37 +748,37 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-30,38%</t>
+          <t>-32,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>307,37%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>400,98%</t>
+          <t>150,48%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>548,14%</t>
+          <t>249,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>212,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>113,98%</t>
+          <t>79,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>83,28%</t>
+          <t>56,76%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-31,81; 1234,27</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-77,72; 560,6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-92,15; 311,75</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>-34,06; —</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-77,72; 560,6</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-91,63; 309,22</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,92; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,57; 862,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-36,49; 625,07</t>
+          <t>-41,96; 394,21</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-44,29; 533,93</t>
+          <t>-47,07; 429,11</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,12</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 4,33</t>
+          <t>0,5; 4,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 2,64</t>
+          <t>-2,07; 2,4</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 2,6</t>
+          <t>-0,38; 2,62</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>388,38%</t>
+          <t>375,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>65,68%</t>
+          <t>58,71%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-36,1; —</t>
+          <t>-39,38; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-47,72; 144,85</t>
+          <t>-50,94; 129,87</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,64; 203,51</t>
+          <t>-18,46; 200,5</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>1,44</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1099,12 +1099,12 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,16</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>1,55</t>
+          <t>1,51</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,2; 3,32</t>
+          <t>-0,22; 3,25</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 1,79</t>
+          <t>-0,89; 2,2</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,17</t>
+          <t>-0,11; 3,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1152,12 +1152,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 0,68</t>
+          <t>-0,96; 0,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,84</t>
+          <t>0,53; 2,78</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>219,29%</t>
+          <t>213,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1190,12 +1190,12 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>91,12%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>259,06%</t>
+          <t>252,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1205,12 +1205,12 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-24,63%</t>
+          <t>-3,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>240,08%</t>
+          <t>233,64%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-52,39; —</t>
+          <t>-53,29; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1243,12 +1243,12 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 7434325,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-39,63; 13433714,88</t>
+          <t>-40,51; 13151352,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1258,12 +1258,12 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-90,34; 2103099,8</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,47; 1216,58</t>
+          <t>16,64; 1196,28</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>-0,06</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1295,32 +1295,32 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>3,81</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,08</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2,71</t>
+          <t>2,58</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>-0,08</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 3,0</t>
+          <t>-1,98; 1,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1348,32 +1348,32 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,27; 4,34</t>
+          <t>0,46; 4,22</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,69</t>
+          <t>1,52; 6,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 2,26</t>
+          <t>-0,82; 1,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,88; 3,19</t>
+          <t>-0,07; 2,48</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,3; 4,37</t>
+          <t>1,15; 4,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 0,96</t>
+          <t>-1,1; 0,77</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>115,46%</t>
+          <t>-5,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,37 +1396,37 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-80,84%</t>
+          <t>-80,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>480,42%</t>
+          <t>275,57%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>705,06%</t>
+          <t>445,76%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>200,67%</t>
+          <t>72,29%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>231,12%</t>
+          <t>109,39%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>313,21%</t>
+          <t>258,98%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>18,67%</t>
+          <t>-7,61%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-46,3; 606,88</t>
+          <t>-100,0; 388,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>56,75; —</t>
+          <t>-6,06; 1466,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>111,49; —</t>
+          <t>53,85; 2081,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-36,68; —</t>
+          <t>-57,02; 679,04</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>40,15; 837,01</t>
+          <t>-15,54; 509,99</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>74,13; 1050,8</t>
+          <t>56,97; 852,32</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-56,22; 258,94</t>
+          <t>-64,29; 175,52</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,97</t>
+          <t>-0,99</t>
         </is>
       </c>
     </row>
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,98; 0,0</t>
+          <t>-4,01; -0,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 0,16</t>
+          <t>-2,47; 0,11</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-41,37%</t>
+          <t>-41,3%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-84,34%</t>
+          <t>-85,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-67,39%</t>
+          <t>-68,86%</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-93,24; 147,69</t>
+          <t>-94,67; 111,53</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>3,44</t>
+          <t>3,39</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>3,68</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>3,56</t>
+          <t>3,53</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,51; 6,19</t>
+          <t>1,5; 6,19</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,19; 5,59</t>
+          <t>2,17; 5,54</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,44; 5,11</t>
+          <t>2,42; 5,08</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>955,51%</t>
+          <t>942,93%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2004,89%</t>
+          <t>1985,58%</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>18,07</t>
+          <t>27,71</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>11,53</t>
+          <t>17,28</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,49; 5,36</t>
+          <t>1,45; 5,42</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,56; 48,76</t>
+          <t>4,44; 64,47</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,76; 33,05</t>
+          <t>3,62; 47,38</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>421,14%</t>
+          <t>414,15%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>2423,54%</t>
+          <t>3715,42%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>1542,5%</t>
+          <t>2311,44%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>92,52; 1711,52</t>
+          <t>85,41; 1680,09</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>440,58; —</t>
+          <t>453,59; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>394,44; 8385,61</t>
+          <t>386,44; 12474,49</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>0,55</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 2,1</t>
+          <t>-1,02; 1,48</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 2,03</t>
+          <t>-0,3; 1,97</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 1,62</t>
+          <t>-0,44; 1,34</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>80,3%</t>
+          <t>31,32%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>73,71%</t>
+          <t>73,19%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>76,64%</t>
+          <t>49,45%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 393,53</t>
+          <t>-60,93; 224,09</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-21,75; 333,14</t>
+          <t>-21,55; 341,45</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-7,65; 216,17</t>
+          <t>-29,22; 167,18</t>
         </is>
       </c>
     </row>
@@ -2370,37 +2370,37 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>1,39</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,98</t>
+          <t>0,92</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>7,03</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,96</t>
+          <t>0,93</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,26</t>
+          <t>0,25</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>3,11</t>
+          <t>4,22</t>
         </is>
       </c>
     </row>
@@ -2423,27 +2423,27 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,09</t>
+          <t>0,6; 1,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,39; 1,58</t>
+          <t>0,33; 1,53</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 1,08</t>
+          <t>-0,14; 1,04</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,65; 14,1</t>
+          <t>1,46; 22,9</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,59; 1,44</t>
+          <t>0,55; 1,39</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,48; 8,95</t>
+          <t>1,3; 13,84</t>
         </is>
       </c>
     </row>
@@ -2476,37 +2476,37 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>152,8%</t>
+          <t>132,4%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>78,54%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>43,52%</t>
+          <t>38,35%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>417,32%</t>
+          <t>601,53%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>95,29%</t>
+          <t>89,6%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>308,24%</t>
+          <t>405,74%</t>
         </is>
       </c>
     </row>
@@ -2529,37 +2529,37 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>67,5; 308,81</t>
+          <t>49,33; 277,39</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>26,76; 183,91</t>
+          <t>22,25; 170,84</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-7,26; 124,06</t>
+          <t>-10,84; 111,47</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>129,18; 1346,45</t>
+          <t>114,05; 2237,36</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>48,02; 170,67</t>
+          <t>43,39; 159,19</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-12,59; 72,08</t>
+          <t>-12,99; 69,48</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>137,35; 974,58</t>
+          <t>116,76; 1609,53</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P2A_psíq_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P2A_psíq_R-Provincia-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Hogares con personas con limitación, discapacidad psíquica</t>
+          <t>Hogares con personas con limitación por discapacidad psíquica</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 6,37</t>
+          <t>-0,39; 6,25</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 3,39</t>
+          <t>-1,93; 3,42</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 1,26</t>
+          <t>-2,58; 1,45</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 5,65</t>
+          <t>0,22; 5,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 3,68</t>
+          <t>-0,6; 3,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,03; 5,08</t>
+          <t>-0,01; 5,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,74; 4,8</t>
+          <t>0,74; 4,77</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 2,7</t>
+          <t>-0,8; 2,7</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-0,68; 2,35</t>
+          <t>-0,77; 2,55</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-31,81; 1234,27</t>
+          <t>-35,16; 1025,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-77,72; 560,6</t>
+          <t>-74,64; 604,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-92,15; 311,75</t>
+          <t>-92,38; 428,88</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-34,06; —</t>
+          <t>-60,24; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-53,92; —</t>
+          <t>-56,35; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,57; 862,24</t>
+          <t>8,06; 778,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,96; 394,21</t>
+          <t>-50,68; 459,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,07; 429,11</t>
+          <t>-47,36; 442,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,18</t>
+          <t>-0,52; 2,21</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 0,34</t>
+          <t>-1,49; 0,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 4,27</t>
+          <t>0,6; 4,37</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,5; 0,17</t>
+          <t>-3,51; 0,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,04; -0,4</t>
+          <t>-3,93; -0,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,4</t>
+          <t>-1,98; 2,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 0,63</t>
+          <t>-1,63; 0,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; -0,3</t>
+          <t>-2,23; -0,32</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 2,62</t>
+          <t>-0,37; 2,54</t>
         </is>
       </c>
     </row>
@@ -1017,44 +1017,44 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,38; —</t>
+          <t>-21,12; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-83,78; 16,89</t>
+          <t>-83,27; 21,53</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-91,08; -4,55</t>
+          <t>-89,92; -13,61</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,94; 129,87</t>
+          <t>-49,84; 120,1</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-66,32; 60,6</t>
+          <t>-68,01; 57,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-88,13; -17,34</t>
+          <t>-88,92; -9,92</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-18,46; 200,5</t>
+          <t>-16,06; 208,44</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,03; 5,39</t>
+          <t>0,27; 5,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 0,0</t>
+          <t>-2,33; 0,0</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 3,25</t>
+          <t>-0,05; 3,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 3,51</t>
+          <t>-0,09; 3,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 2,2</t>
+          <t>-0,73; 2,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-0,11; 3,09</t>
+          <t>0,07; 3,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,38; 3,59</t>
+          <t>0,36; 3,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 0,85</t>
+          <t>-0,94; 0,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 2,78</t>
+          <t>0,42; 2,61</t>
         </is>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-68,89; —</t>
+          <t>-51,89; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1233,37 +1233,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-53,29; —</t>
+          <t>-47,52; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-75,89; 8669294,82</t>
+          <t>-52,73; 10067377,78</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 7434325,12</t>
+          <t>-100,0; 5892906,11</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-40,51; 13151352,64</t>
+          <t>-19,28; 12364077,83</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,83; 1624,35</t>
+          <t>3,96; 1408,71</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-90,34; 2103099,8</t>
+          <t>-88,2; 414,88</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,64; 1196,28</t>
+          <t>16,24; 1203,16</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,98; 1,48</t>
+          <t>-1,74; 1,48</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 3,58</t>
+          <t>-0,58; 3,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-2,77; -0,06</t>
+          <t>-2,72; -0,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,46; 4,22</t>
+          <t>0,48; 4,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>1,52; 6,49</t>
+          <t>1,14; 6,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,74</t>
+          <t>-0,86; 1,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 2,48</t>
+          <t>-0,14; 2,34</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,15; 4,33</t>
+          <t>1,04; 4,36</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 0,77</t>
+          <t>-1,29; 0,7</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 388,67</t>
+          <t>-88,31; 397,93</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-45,41; 765,34</t>
+          <t>-48,51; 691,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,32 +1454,32 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 1466,6</t>
+          <t>5,42; 1671,13</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>53,85; 2081,86</t>
+          <t>51,79; 2248,31</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-57,02; 679,04</t>
+          <t>-58,19; 634,1</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-15,54; 509,99</t>
+          <t>-21,1; 483,53</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>56,97; 852,32</t>
+          <t>46,28; 837,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-64,29; 175,52</t>
+          <t>-72,15; 142,47</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 5,71</t>
+          <t>-0,55; 5,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 1,41</t>
+          <t>-2,27; 1,39</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,05</t>
+          <t>-2,54; 1,04</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 4,84</t>
+          <t>-1,04; 5,1</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 2,82</t>
+          <t>-2,26; 2,99</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,01; -0,01</t>
+          <t>-4,38; -0,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,14; 4,28</t>
+          <t>0,02; 4,3</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,56</t>
+          <t>-1,56; 1,45</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 0,11</t>
+          <t>-2,55; -0,01</t>
         </is>
       </c>
     </row>
@@ -1655,7 +1655,7 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-61,5; 1415,19</t>
+          <t>-59,11; 1197,12</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1670,39 +1670,39 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-60,13; 780,53</t>
+          <t>-57,16; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
+          <t>-87,73; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-7,98; 623,18</t>
+          <t>-24,01; 575,35</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-75,2; 287,66</t>
+          <t>-73,9; 210,15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-94,67; 111,53</t>
+          <t>-97,42; 32,08</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,02; 3,47</t>
+          <t>0,0; 3,65</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,36</t>
+          <t>-0,73; 1,12</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>1,5; 6,19</t>
+          <t>1,58; 6,05</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>1,09; 4,97</t>
+          <t>1,1; 5,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,2</t>
+          <t>0,34; 3,43</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,17; 5,54</t>
+          <t>2,29; 5,83</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,92; 3,59</t>
+          <t>0,89; 3,5</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 1,64</t>
+          <t>-0,13; 1,65</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>2,42; 5,08</t>
+          <t>2,26; 5,19</t>
         </is>
       </c>
     </row>
@@ -1918,7 +1918,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-0,21; 2,21</t>
+          <t>-0,04; 2,28</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 0,64</t>
+          <t>-1,13; 0,56</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>1,45; 5,42</t>
+          <t>1,53; 5,44</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 1,78</t>
+          <t>-0,45; 1,65</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 1,19</t>
+          <t>-0,91; 1,07</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,44; 64,47</t>
+          <t>4,46; 59,1</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-0,05; 1,65</t>
+          <t>0,04; 1,62</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-0,65; 0,68</t>
+          <t>-0,72; 0,53</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>3,62; 47,38</t>
+          <t>3,61; 49,02</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-37,39; 667,55</t>
+          <t>-17,92; 720,73</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 365,34</t>
+          <t>-100,0; 277,39</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>85,41; 1680,09</t>
+          <t>87,64; 1830,23</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-51,14; 626,63</t>
+          <t>-46,44; 543,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-78,04; 420,85</t>
+          <t>-79,32; 331,64</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>453,59; —</t>
+          <t>466,82; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-15,86; 344,01</t>
+          <t>-2,42; 340,2</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-65,62; 179,7</t>
+          <t>-69,87; 115,44</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>386,44; 12474,49</t>
+          <t>407,29; 12710,45</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-1,2; 1,01</t>
+          <t>-1,26; 1,05</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 0,79</t>
+          <t>-1,26; 0,84</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 1,48</t>
+          <t>-1,08; 1,51</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 2,08</t>
+          <t>-0,62; 2,0</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,84; 1,56</t>
+          <t>-0,95; 1,57</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,97</t>
+          <t>-0,4; 1,94</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,06</t>
+          <t>-0,55; 1,12</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 0,94</t>
+          <t>-0,7; 0,86</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 1,34</t>
+          <t>-0,43; 1,39</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-78,79; 235,28</t>
+          <t>-80,67; 249,57</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-78,97; 156,16</t>
+          <t>-73,42; 180,15</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-60,93; 224,09</t>
+          <t>-62,18; 253,28</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 318,2</t>
+          <t>-39,15; 366,28</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-57,07; 254,89</t>
+          <t>-58,25; 256,52</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-21,55; 341,45</t>
+          <t>-25,96; 298,91</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-45,08; 142,99</t>
+          <t>-40,35; 153,18</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-49,38; 137,04</t>
+          <t>-48,82; 124,8</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-29,22; 167,18</t>
+          <t>-23,55; 193,99</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,32; 1,52</t>
+          <t>0,31; 1,55</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 0,49</t>
+          <t>-0,46; 0,51</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>0,6; 1,9</t>
+          <t>0,53; 1,9</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,53</t>
+          <t>0,33; 1,56</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 1,04</t>
+          <t>-0,11; 1,02</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>1,46; 22,9</t>
+          <t>1,48; 24,28</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,55; 1,39</t>
+          <t>0,48; 1,33</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 0,61</t>
+          <t>-0,13; 0,65</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,3; 13,84</t>
+          <t>1,26; 14,1</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>26,49; 220,44</t>
+          <t>19,85; 223,93</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-41,21; 70,95</t>
+          <t>-39,25; 71,14</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>49,33; 277,39</t>
+          <t>43,71; 266,99</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>22,25; 170,84</t>
+          <t>20,86; 164,38</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-10,84; 111,47</t>
+          <t>-6,87; 112,24</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>114,05; 2237,36</t>
+          <t>120,21; 2712,32</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>43,39; 159,19</t>
+          <t>40,07; 154,51</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 69,48</t>
+          <t>-10,64; 76,2</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>116,76; 1609,53</t>
+          <t>117,6; 1453,47</t>
         </is>
       </c>
     </row>
